--- a/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,14</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,74</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-19,8%</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-40,91%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>-35,67%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,81%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 20,28</t>
+          <t>-7,63; 2,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,04; 4,48</t>
+          <t>-6,78; 1,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 31,0</t>
+          <t>-3,99; 4,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,69; 66,51</t>
+          <t>-5,55; 6,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,09; 13,63</t>
+          <t>-73,51; 59,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 156,24</t>
+          <t>-77,92; 63,68</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-60,86; 188,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-52,32; 161,1</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,55%</t>
+          <t>-19,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-47,78%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-7,77%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 17,28</t>
+          <t>-8,64; 4,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,33; 9,93</t>
+          <t>-14,47; 0,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 26,42</t>
+          <t>-5,63; 6,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 44,06</t>
+          <t>-7,91; 5,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 18,98</t>
+          <t>-60,34; 74,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 59,7</t>
+          <t>-75,87; 13,43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-48,9; 123,08</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-57,37; 97,34</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,12</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>49,98</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,6</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>361,32%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-36,91%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54,82%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 61,43</t>
+          <t>0,0; 12,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 89,58</t>
+          <t>2,4; 20,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 81,24</t>
+          <t>-18,83; 6,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-6,51; 7,6</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,46; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 1336,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>-20,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>-35,5%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 14,24</t>
+          <t>-5,7; 2,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 10,54</t>
+          <t>-7,62; 0,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 28,91</t>
+          <t>-3,66; 3,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 38,33</t>
+          <t>-3,83; 4,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 24,82</t>
+          <t>-55,23; 38,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 99,87</t>
+          <t>-64,37; 5,97</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-42,18; 78,17</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-37,3; 83,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-30,67%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-35,67%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,81%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.023145919297987</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.161097528936672</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4149097914888454</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.544375584276563</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.3026446763340132</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3703998532429277</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.09624986345330615</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.07759561077815361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 2,37</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,78; 1,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 4,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 6,39</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-73,51; 59,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-77,92; 63,68</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-60,86; 188,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-52,32; 161,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.345056179454873</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.778763991471994</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.789556443307581</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.669444673508233</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7319966209098618</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7810986047453912</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6029370251168479</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5436081273680488</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.173386697658563</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.765554721883704</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.622291538168222</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.904786060407987</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6147444514230095</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6191628847765102</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.95563308262854</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.515356745663138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,54</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-19,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-47,78%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-7,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; 4,4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,47; 0,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 6,99</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 5,39</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-60,34; 74,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-75,87; 13,43</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-48,9; 123,08</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-57,37; 97,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.742149979062202</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.641071916683135</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.8264828826836559</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.8454012350180923</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3053265466042515</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4798500447826751</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.09042019779206407</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.08550145934226555</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-36,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>54,82%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.3895343195423</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.68927818182723</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.86460625391132</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.800673260860394</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6949110732385431</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7646265317935762</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4968252266462102</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5630886727554401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,61</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 20,12</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,83; 6,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 7,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.923583389136872</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.60298866952443</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.766417954289976</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.512234372267293</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5775555110920504</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2004831998369097</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.300527595045949</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.008532768463523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-20,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-35,5%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.29574463034369</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.357755069439428</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.393583536349374</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.892664138384208</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3443637453701684</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.9387618747150429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 2,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 0,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 3,65</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 4,36</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-55,23; 38,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-64,37; 5,97</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-42,18; 78,17</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,3; 83,1</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.103988205554143</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-19.39394636626336</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.555892634760419</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.22895149272622</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.58580379804579</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.139472254904073</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.584649960600448</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.369295935663966</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.198289169176532</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2170138103297969</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1870588465164497</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2843474621530878</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3694579477416942</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.03271926279471625</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02470367701482579</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.471016447181126</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.826551753149646</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.869722819789867</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.973717620817184</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6256292537474331</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6635150756627576</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4327601465044367</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3878194981133162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.328132354379347</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.136438309376793</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.749463332268713</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.09001380417887</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2503715953411672</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.03488361552276088</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8226995716040614</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7710142888370475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1013,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
